--- a/Continuous System Simulation (chemical reaction)/lab01.xlsx
+++ b/Continuous System Simulation (chemical reaction)/lab01.xlsx
@@ -13,6 +13,7 @@
     <definedName name="lab01_" localSheetId="0">Sheet1!$A$1:$C$961</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -9083,7 +9084,9021 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$961</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="960"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.938750999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.877662999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.816733999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.755966000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.695357999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.634911000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.574623000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.514495999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.454521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.394706999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69.335044999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.275542999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.216194000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.157004999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.097969000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.039085</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.980354000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.921775999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.863349999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.805076999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.746948000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68.688972000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68.631148999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>68.573470999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68.515945000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.458564999999993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.401329000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68.344245999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68.287307999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.230514999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>68.173866000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>68.117362999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68.061004999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68.004790999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>67.948723000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67.892792</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67.837006000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>67.781357</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67.725853000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67.670485999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>67.615264999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>67.560181</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>67.505234000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.450423999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>67.395752000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>67.341217</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67.286818999999994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>67.232558999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67.178436000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>67.124450999999993</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>67.070601999999994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>67.016884000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>66.963302999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66.909851000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>66.856537000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>66.803352000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>66.750304999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>66.697388000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66.644599999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>66.591942000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66.539412999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>66.487015</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66.434746000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66.382606999999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.330596999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66.278717</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>66.226967000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>66.175338999999994</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>66.123840000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>66.072463999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>66.021216999999993</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>65.970093000000006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>65.919098000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>65.868224999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>65.817474000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>65.766852999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>65.716353999999995</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>65.665976999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>65.615723000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>65.56559</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>65.515579000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>65.465691000000007</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>65.415915999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>65.366264000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>65.316733999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>65.267325999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>65.218033000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>65.168861000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>65.119804000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>65.070869000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>65.022048999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>64.973343</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>64.924758999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>64.876289</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>64.827933999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>64.779694000000006</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>64.731566999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>64.683555999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>64.635658000000006</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>64.587874999999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>64.540206999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>64.492653000000004</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>64.445212999999995</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>64.397880999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>64.350662</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>64.303557999999995</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>64.256561000000005</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>64.209678999999994</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>64.162903</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>64.116241000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>64.069687000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>64.023246999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>63.976913000000003</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>63.930686999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>63.884571000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>63.838562000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>63.792659999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>63.746864000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>63.701175999999997</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>63.655594000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>63.610118999999997</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>63.564751000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>63.519485000000003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>63.474327000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>63.429271999999997</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>63.384323000000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>63.339478</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>63.294735000000003</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>63.250095000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>63.205559000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>63.161124999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>63.116795000000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>63.072566999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>63.028438999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>62.984413000000004</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>62.940491000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>62.896667000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>62.852943000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>62.809319000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>62.765796999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>62.722374000000002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>62.679049999999997</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>62.635826000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>62.592697000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>62.549666999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>62.506737000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>62.463901999999997</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>62.421165000000002</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>62.378525000000003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>62.335979000000002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>62.293532999999996</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>62.251182999999997</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>62.208927000000003</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>62.166767</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>62.124701999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>62.082732999999998</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>62.040855000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>61.999073000000003</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>61.957386</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>61.915790999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>61.874290000000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>61.832881999999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>61.791564999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>61.750343000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>61.709212999999998</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>61.668174999999998</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>61.627228000000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>61.586371999999997</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>61.545608999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>61.504931999999997</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>61.464348000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>61.423855000000003</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>61.383450000000003</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>61.343136000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>61.302909999999997</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>61.262771999999998</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>61.222724999999997</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>61.182766000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>61.142895000000003</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>61.103110999999998</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>61.063415999999997</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>61.023808000000002</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>60.984282999999998</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>60.944847000000003</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>60.905498999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>60.866233999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>60.827057000000003</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>60.787964000000002</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>60.748958999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>60.710037</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>60.671199999999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>60.632449999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>60.593783999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>60.555202000000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>60.516705000000002</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>60.478290999999999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>60.439959999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>60.401710999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>60.363543999999997</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>60.325462000000002</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>60.287460000000003</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>60.249541999999998</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>60.211703999999997</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>60.173949999999998</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>60.136276000000002</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>60.098681999999997</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>60.061169</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>60.023738999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>59.986389000000003</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>59.949120000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>59.911929999999998</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>59.874817</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>59.837783999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>59.800831000000002</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>59.763958000000002</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>59.727161000000002</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>59.690444999999997</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>59.653804999999998</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>59.617244999999997</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>59.580761000000003</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>59.544356999999998</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>59.508029999999998</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>59.471778999999998</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>59.435603999999998</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>59.399506000000002</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>59.363483000000002</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>59.327537999999997</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>59.291668000000001</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>59.255875000000003</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>59.220157999999998</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>59.184517</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>59.148949000000002</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>59.113456999999997</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>59.078037000000002</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>59.042693999999997</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>59.007423000000003</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>58.972228999999999</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>58.937106999999997</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>58.902057999999997</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>58.867080999999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>58.832180000000001</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>58.797351999999997</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>58.762596000000002</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>58.727913000000001</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>58.693302000000003</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>58.658763999999998</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>58.624293999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>58.589897000000001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>58.555573000000003</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>58.521320000000003</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>58.487136999999997</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>58.453026000000001</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>58.418982999999997</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>58.385013999999998</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>58.351112000000001</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>58.317279999999997</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>58.283520000000003</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>58.249828000000001</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>58.216206</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>58.182651999999997</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>58.149166000000001</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>58.115749000000001</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>58.082400999999997</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>58.049121999999997</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>58.015911000000003</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>57.982768999999998</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>57.949696000000003</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>57.916687000000003</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>57.883747</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>57.850876</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>57.818069000000001</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>57.785331999999997</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>57.752659000000001</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>57.720055000000002</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>57.687514999999998</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>57.655040999999997</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>57.622635000000002</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>57.590294</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>57.558017999999997</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>57.525806000000003</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>57.493659999999998</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>57.461578000000003</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>57.429561999999997</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>57.39761</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>57.365723000000003</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>57.3339</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>57.302143000000001</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>57.270446999999997</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>57.238815000000002</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>57.207248999999997</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>57.175742999999997</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>57.144302000000003</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>57.112923000000002</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>57.081608000000003</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>57.050353999999999</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>57.019165000000001</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>56.988036999999998</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>56.956969999999998</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>56.925964</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>56.895023000000002</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>56.864142999999999</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>56.833323999999998</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>56.802567000000003</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>56.77187</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>56.741233999999999</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>56.710659</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>56.680145000000003</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>56.649692999999999</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>56.619297000000003</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>56.588963</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>56.558689000000001</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>56.528472999999998</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>56.498317999999998</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>56.468223999999999</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>56.438186999999999</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>56.408211000000001</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>56.378292000000002</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>56.348433999999997</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>56.318634000000003</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>56.288891</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>56.259208999999998</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>56.229584000000003</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>56.200015999999998</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>56.170506000000003</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>56.141052000000002</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>56.111656000000004</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>56.082317000000003</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>56.053035999999999</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>56.023811000000002</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>55.994644000000001</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>55.965533999999998</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>55.936481000000001</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>55.907485999999999</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>55.878543999999998</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>55.849659000000003</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>55.820830999999998</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>55.792060999999997</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>55.763343999999996</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>55.734684000000001</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>55.706077999999998</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>55.677528000000002</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>55.649033000000003</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>55.620593999999997</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>55.592208999999997</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>55.563876999999998</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>55.535598999999998</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>55.507378000000003</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>55.479210000000002</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>55.451096</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>55.423034999999999</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>55.395026999999999</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>55.367072999999998</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>55.339171999999998</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>55.311324999999997</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>55.283531000000004</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>55.255791000000002</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>55.228104000000002</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>55.200470000000003</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>55.172890000000002</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>55.145363000000003</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>55.117885999999999</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>55.090462000000002</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>55.063091</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>55.035769999999999</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>55.008502999999997</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>54.981285</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>54.954121000000001</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>54.927005999999999</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>54.899943999999998</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>54.872931999999999</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>54.845973999999998</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>54.819065000000002</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>54.792206</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>54.7654</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>54.738644000000001</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>54.711936999999999</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>54.685279999999999</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>54.658672000000003</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>54.632114000000001</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>54.605609999999999</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>54.579155</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>54.552750000000003</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>54.526394000000003</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>54.500084000000001</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>54.473824</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>54.447612999999997</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>54.421452000000002</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>54.395339999999997</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>54.369278000000001</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>54.343262000000003</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>54.317295000000001</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>54.291378000000002</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>54.265506999999999</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>54.239685000000001</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>54.213912999999998</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>54.188186999999999</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>54.162509999999997</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>54.136879</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>54.111297999999998</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>54.085762000000003</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>54.060271999999998</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>54.034832000000002</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>54.009438000000003</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>53.984088999999997</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>53.95879</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>53.933537000000001</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>53.908329000000002</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>53.883167</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>53.858051000000003</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>53.832980999999997</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>53.807957000000002</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>53.782981999999997</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>53.758052999999997</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>53.733170000000001</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>53.708328000000002</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>53.683532999999997</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>53.658783</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>53.634079</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>53.609420999999998</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>53.584808000000002</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>53.560242000000002</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>53.535716999999998</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>53.511237999999999</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>53.486804999999997</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>53.462414000000003</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>53.438068000000001</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>53.413769000000002</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>53.389510999999999</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>53.365299</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>53.341129000000002</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>53.317005000000002</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>53.292923000000002</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>53.268886999999999</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>53.244892</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>53.220939999999999</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>53.197032999999998</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>53.173167999999997</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>53.149344999999997</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>53.125568000000001</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>53.101832999999999</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>53.078139999999998</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>53.054488999999997</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>53.030880000000003</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>53.007313000000003</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>52.983790999999997</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>52.960312000000002</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>52.936874000000003</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>52.913479000000002</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>52.890124999999998</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>52.866813999999998</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>52.843544000000001</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>52.820312999999999</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>52.797122999999999</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>52.773975</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>52.750869999999999</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>52.727806000000001</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>52.704783999999997</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>52.681801</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>52.658859</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>52.635959999999997</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>52.613098000000001</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>52.590279000000002</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>52.567501</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>52.544761999999999</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>52.522064</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>52.499405000000003</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>52.476787999999999</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>52.454208000000001</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>52.431671000000001</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>52.409171999999998</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>52.386715000000002</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>52.364296000000003</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>52.341915</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>52.319575999999998</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>52.297275999999997</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>52.275013000000001</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>52.252791999999999</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>52.230609999999999</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>52.208466000000001</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>52.186359000000003</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>52.164295000000003</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>52.142268999999999</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>52.120280999999999</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>52.098331000000002</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>52.076419999999999</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>52.054546000000002</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>52.032710999999999</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>52.010914</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>51.989154999999997</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>51.967433999999997</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>51.945751000000001</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>51.924106999999999</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>51.902500000000003</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>51.880932000000001</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>51.859397999999999</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>51.837902</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>51.816443999999997</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>51.795025000000003</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>51.77364</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>51.752293000000002</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>51.730983999999999</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>51.709713000000001</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>51.688476999999999</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>51.667278000000003</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>51.646113999999997</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>51.624988999999999</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>51.603901</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>51.582847999999998</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>51.561832000000003</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>51.540852000000001</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>51.519908999999998</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>51.499001</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>51.47813</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>51.457293999999997</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>51.436492999999999</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>51.415730000000003</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>51.395000000000003</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>51.374305999999997</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>51.353648999999997</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>51.333027000000001</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>51.312438999999998</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>51.291885000000001</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>51.271369999999997</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>51.250889000000001</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>51.230441999999996</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>51.210030000000003</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>51.189650999999998</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>51.169308000000001</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>51.148997999999999</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>51.128726999999998</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>51.108490000000003</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>51.088287000000001</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>51.068119000000003</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>51.047984999999997</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>51.027884999999998</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>51.007815999999998</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>50.987782000000003</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>50.967781000000002</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>50.947814999999999</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>50.927883000000001</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>50.907986000000001</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>50.888123</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>50.868293999999999</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>50.848495</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>50.828732000000002</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>50.809002</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>50.789307000000001</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>50.769641999999997</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>50.750011000000001</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>50.730415000000001</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>50.710850000000001</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>50.691319</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>50.671818000000002</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>50.652351000000003</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>50.632919000000001</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>50.613517999999999</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>50.594150999999997</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>50.574814000000003</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>50.555511000000003</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>50.536239999999999</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>50.517001999999998</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>50.497795000000004</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>50.478619000000002</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>50.459476000000002</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>50.440365</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>50.421284</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>50.402237</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>50.383220999999999</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>50.364235000000001</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>50.345283999999999</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>50.326363000000001</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>50.307471999999997</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>50.288612000000001</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>50.269787000000001</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>50.250991999999997</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>50.232227000000002</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>50.213493</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>50.194789999999998</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>50.176116999999998</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>50.157477999999998</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>50.138869999999997</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>50.120292999999997</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>50.101745999999999</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>50.083229000000003</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>50.064743</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>50.046287999999997</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>50.027863000000004</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>50.009467999999998</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>49.991104</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>49.972766999999997</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>49.954459999999997</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>49.936183999999997</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>49.917937999999999</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>49.899723000000002</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>49.881537999999999</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>49.863384000000003</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>49.845256999999997</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>49.827159999999999</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>49.809092999999997</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>49.791058</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>49.773048000000003</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>49.755070000000003</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>49.737121999999999</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>49.719203999999998</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>49.701312999999999</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>49.683453</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>49.665622999999997</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>49.647820000000003</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>49.630046999999998</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>49.612301000000002</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>49.594585000000002</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>49.576897000000002</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>49.559238000000001</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>49.541606999999999</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>49.524006</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>49.506431999999997</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>49.488888000000003</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>49.471370999999998</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>49.453884000000002</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>49.436424000000002</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>49.418995000000002</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>49.401592000000001</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>49.384216000000002</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>49.366871000000003</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>49.349552000000003</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>49.332259999999998</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>49.314999</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>49.297764000000001</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>49.280555999999997</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>49.263378000000003</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>49.246226999999998</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>49.229103000000002</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>49.212006000000002</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>49.194935000000001</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>49.177894999999999</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>49.160881000000003</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>49.143894000000003</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>49.126933999999999</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>49.110000999999997</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>49.093094000000001</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>49.076214</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>49.059361000000003</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>49.042534000000003</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>49.025737999999997</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>49.008968000000003</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>48.992226000000002</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>48.97551</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>48.958820000000003</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>48.942157999999999</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>48.925517999999997</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>48.908904999999997</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>48.892319000000001</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>48.875759000000002</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>48.859226</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>48.84272</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>48.826241000000003</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>48.809787999999998</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>48.793362000000002</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>48.776958</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>48.760581999999999</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>48.744231999999997</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>48.727908999999997</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>48.711613</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>48.695338999999997</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>48.679091999999997</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>48.662872</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>48.646678999999999</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>48.630507999999999</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>48.614364999999999</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>48.598247999999998</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>48.582152999999998</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>48.566085999999999</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>48.550044999999997</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>48.534027000000002</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>48.518036000000002</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>48.502068000000001</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>48.486125999999999</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>48.470207000000002</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>48.454315000000001</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>48.438450000000003</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>48.422606999999999</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>48.406792000000003</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>48.390999000000001</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>48.375233000000001</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>48.359489000000004</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>48.343769000000002</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>48.328074999999998</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>48.312404999999998</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>48.296760999999996</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>48.281139000000003</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>48.265545000000003</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>48.249972999999997</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>48.234425000000002</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>48.218902999999997</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>48.203403000000002</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>48.187927000000002</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>48.172477999999998</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>48.157051000000003</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>48.141646999999999</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>48.126266000000001</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>48.110911999999999</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>48.095581000000003</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>48.080272999999998</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>48.064987000000002</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>48.049728000000002</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>48.034492</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>48.019278999999997</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>48.004089</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>47.988922000000002</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>47.973778000000003</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>47.958660000000002</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>47.943565</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>47.928493000000003</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>47.913445000000003</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>47.898417999999999</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>47.883414999999999</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>47.868434999999998</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>47.853476999999998</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>47.838543000000001</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>47.823630999999999</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>47.808743</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>47.793877000000002</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>47.779034000000003</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>47.764214000000003</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>47.749415999999997</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>47.734642000000001</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>47.719890999999997</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>47.705162000000001</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>47.690455999999998</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>47.675773999999997</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>47.661113999999998</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>47.646473</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>47.631855000000002</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>47.617260000000002</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>47.602688000000001</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>47.588138999999998</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>47.573611999999997</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>47.559105000000002</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>47.544620999999999</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>47.530158999999998</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>47.515720000000002</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>47.501305000000002</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>47.486908</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>47.472534000000003</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>47.458182999999998</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>47.443851000000002</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>47.429543000000002</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>47.415256999999997</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>47.40099</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>47.386744999999998</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>47.372523999999999</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>47.358322000000001</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>47.344143000000003</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>47.329987000000003</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>47.315849</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>47.301735000000001</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>47.287643000000003</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>47.273570999999997</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>47.259520999999999</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>47.245491000000001</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>47.231482999999997</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>47.217495</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>47.203529000000003</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>47.189582999999999</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>47.175659000000003</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>47.161754999999999</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>47.147872999999997</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>47.134010000000004</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>47.120170999999999</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>47.106349999999999</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>47.092551999999998</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>47.078772999999998</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>47.065013999999998</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>47.051276999999999</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>47.037559999999999</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>47.023865000000001</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>47.010188999999997</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>46.996532000000002</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>46.982899000000003</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>46.969284000000002</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>46.955688000000002</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>46.942115999999999</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>46.928561999999999</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>46.915028</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>46.901516000000001</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>46.888022999999997</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>46.874549999999999</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>46.861094999999999</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>46.847664000000002</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>46.834251000000002</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>46.820858000000001</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>46.807484000000002</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>46.794131999999998</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>46.780799999999999</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>46.767487000000003</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>46.754192000000003</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>46.740917000000003</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>46.727660999999998</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>46.714427999999998</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>46.701214</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>46.688018999999997</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>46.674843000000003</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>46.661686000000003</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>46.648547999999998</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>46.635429000000002</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>46.622329999999998</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>46.609248999999998</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>46.596187999999998</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>46.583148999999999</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>46.570129000000001</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>46.557129000000003</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>46.544147000000002</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>46.531185000000001</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>46.518242000000001</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>46.505318000000003</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>46.492412999999999</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>46.479526999999997</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>46.466659999999997</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>46.453811999999999</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>46.440978999999999</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>46.428165</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>46.415371</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>46.402596000000003</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>46.389839000000002</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>46.377102000000001</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>46.364384000000001</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>46.351685000000003</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>46.339005</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>46.326343999999999</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>46.313698000000002</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>46.301071</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>46.288463999999998</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>46.275874999999999</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>46.263306</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>46.250754999999998</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>46.238219999999998</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>46.225704</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>46.213206999999997</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>46.200729000000003</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>46.188267000000003</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>46.175823000000001</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>46.163398999999998</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>46.150993</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>46.138603000000003</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>46.126232000000002</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>46.113880000000002</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>46.101542999999999</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>46.089225999999996</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>46.076926999999998</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>46.064647999999998</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>46.052382999999999</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>46.040137999999999</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>46.027907999999996</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>46.015697000000003</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>46.003506000000002</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>45.991329</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>45.979171999999998</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>45.967033000000001</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>45.954909999999998</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>45.942805999999997</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>45.930717000000001</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>45.918647999999997</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>45.906593000000001</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>45.894558000000004</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>45.882542000000001</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>45.870541000000003</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>45.858559</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>45.846592000000001</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>45.834643999999997</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>45.822712000000003</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>45.810799000000003</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>45.798901000000001</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>45.787022</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>45.775157999999998</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>45.763312999999997</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>45.751483999999998</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>45.739669999999997</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>45.727874999999997</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>45.716095000000003</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>45.704334000000003</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>45.692588999999998</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>45.680861999999998</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>45.669150999999999</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>45.657454999999999</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>45.645778999999997</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>45.634117000000003</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>45.622470999999997</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>45.610844</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>45.599232000000001</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>45.587634999999999</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>45.576056999999999</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>45.564495000000001</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>45.552948000000001</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>45.541420000000002</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>45.529907000000001</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>45.518410000000003</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>45.506931000000002</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>45.495468000000002</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>45.484020000000001</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>45.472588000000002</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>45.461174</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>45.449776</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>45.438392999999998</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>45.427025</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>45.415675999999998</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>45.404342999999997</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>45.393023999999997</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>45.381720999999999</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>45.370434000000003</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>45.359164999999997</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>45.347912000000001</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>45.336674000000002</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>45.325451000000001</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>45.314242999999998</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>45.303051000000004</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>45.291877999999997</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>45.280720000000002</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>45.269576999999998</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>45.258450000000003</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>45.247337000000002</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>45.236240000000002</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>45.225158999999998</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>45.214092000000001</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>45.203040999999999</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>45.192005000000002</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>45.180984000000002</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>45.169983000000002</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>45.158996999999999</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>45.148026000000002</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>45.137070000000001</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>45.126128999999999</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>45.115203999999999</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>45.104294000000003</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>45.093398999999998</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>45.082520000000002</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>45.071655</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>45.060805999999999</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>45.049973000000001</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>45.039154000000003</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>45.028351000000001</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>45.017563000000003</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>45.006790000000002</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>44.996029</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>44.985283000000003</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>44.974552000000003</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>44.963836999999998</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>44.953136000000001</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>44.942450999999998</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>44.931781999999998</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>44.921126999999998</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>44.910488000000001</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>44.899864000000001</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>44.889256000000003</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>44.878658000000001</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>44.868076000000002</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>44.857509999999998</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>44.846958000000001</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>44.836421999999999</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>44.825901000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5111-49B9-91D6-A5DDA71F0FE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$961</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="960"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.938751000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.877662999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.816733999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.755969999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.695362000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.634914000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.574627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.514496000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.454524999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.394711000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.335051999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.275551</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.216206</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.157012999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.097977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.039093000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.980362</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.921782999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.863357999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.805079999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.746955999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.688980000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.631152999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.573478999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.515948999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.458568999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33.401336999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.344250000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.287312</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33.230518000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33.173870000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.117367000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.061008000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.004790999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.948718999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32.892788000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.837001999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.781357</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.725853000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.670490000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32.615265000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32.560181</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32.505234000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.450428000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32.395760000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32.341228000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32.286835000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.232577999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.178455</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32.124470000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32.070618000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32.016902999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>31.963322000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31.909873999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31.856558</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.803374999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.750323999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31.697405</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31.644617</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31.591961000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31.539434</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31.487037999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.434771000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31.382632999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>31.330624</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>31.278742000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>31.226987999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>31.175362</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>31.123861000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>31.072489000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31.021242000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30.970119</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30.919122999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30.86825</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30.817501</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30.766876</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>30.716374999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>30.665997000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30.615739999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30.565605000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>30.515592999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>30.465699999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30.415929999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30.36628</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>30.316749999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>30.267337999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>30.218046000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>30.168873000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30.119817999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30.070881</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>30.02206</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>29.973358000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29.924772000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>29.876303</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>29.827950000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29.779710999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29.731586</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29.683577</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29.635681000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>29.587900000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>29.540234000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>29.49268</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>29.445238</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>29.397908999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>29.350693</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>29.303587</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>29.256594</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>29.209710999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>29.162939000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>29.116275999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>29.069723</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>29.023278999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>28.976944</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>28.930717000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>28.884599999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>28.838591000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>28.792687999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>28.746893</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>28.701204000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>28.655622000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>28.610147000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>28.564776999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>28.519514000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>28.474356</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>28.429302</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>28.384352</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>28.339506</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>28.294764000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>28.250124</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>28.205589</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>28.161155999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>28.116824999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>28.072597999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>28.028471</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>27.984445999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27.940521</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>27.896698000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>27.852974</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>27.809350999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>27.765827000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>27.722403</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>27.679076999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>27.635850999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>27.592724</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>27.549693999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>27.506761999999998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>27.463927999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>27.421192000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>27.378551000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>27.336008</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>27.293559999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>27.251208999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>27.208953999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>27.166793999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>27.124728999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>27.082757999999998</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>27.040882</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>26.999099999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>26.957412999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>26.915818999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>26.874317000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>26.832909000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>26.791594</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26.75037</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>26.709237999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26.668199999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>26.627253</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>26.586395</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>26.545629999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>26.504954999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>26.464371</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>26.423876</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>26.383471</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>26.343154999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>26.302928999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>26.262792999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>26.222743999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>26.182783000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>26.142911999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>26.103128000000002</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>26.063433</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>26.023823</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>25.984300999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>25.944863999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>25.905515999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>25.866253</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>25.827076000000002</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>25.787984999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>25.74898</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>25.710058</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>25.671223000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>25.632470999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>25.593805</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>25.555223000000002</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>25.516725999999998</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>25.47831</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>25.439978</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>25.401730000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>25.363564</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>25.325479999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>25.287479000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>25.249561</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>25.211725000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>25.173969</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>25.136295</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>25.098703</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>25.061191999999998</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>25.023759999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>24.986408000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>24.949137</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>24.911944999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>24.874834</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>24.837803000000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>24.800850000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>24.763977000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>24.727181999999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>24.690466000000001</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>24.653828000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>24.617267999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>24.580786</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>24.54438</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>24.508053</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>24.471802</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>24.435627</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>24.399529999999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>24.363510000000002</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>24.327566000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>24.291696999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>24.255903</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>24.220186000000002</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>24.184543999999999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>24.148975</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>24.113482999999999</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>24.078066</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>24.042722999999999</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>24.007453999999999</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>23.972258</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>23.937135999999999</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>23.902087999999999</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>23.867113</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>23.832211000000001</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>23.79738</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>23.762625</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>23.727941999999999</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>23.693328999999999</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>23.658788999999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>23.624320999999998</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>23.589924</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>23.555599000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>23.521345</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>23.487162000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>23.453049</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>23.419006</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>23.385034999999998</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>23.351133000000001</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>23.317302999999999</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>23.283541</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>23.249849000000001</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>23.216227</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>23.182673000000001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>23.149189</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>23.115773999999998</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>23.082428</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>23.049149</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>23.015937999999998</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>22.982796</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>22.949719999999999</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>22.916713999999999</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>22.883773999999999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>22.850901</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>22.818093999999999</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>22.785354999999999</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>22.752682</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>22.720075999999999</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>22.687536000000001</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>22.655063999999999</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>22.622655999999999</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>22.590315</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>22.558039000000001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>22.525827</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>22.493680999999999</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>22.461599</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>22.429583000000001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>22.397631000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>22.365743999999999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>22.333921</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>22.302161999999999</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>22.270468000000001</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>22.238835999999999</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>22.207267999999999</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>22.175764000000001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>22.144323</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>22.112946000000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>22.081631000000002</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>22.050377000000001</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>22.019186000000001</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>21.988057999999999</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>21.956990999999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>21.925986999999999</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>21.895043999999999</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>21.864163999999999</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>21.833345000000001</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>21.802588</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>21.771891</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>21.741254999999999</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>21.71068</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>21.680164000000001</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>21.649709999999999</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>21.619316000000001</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>21.588982000000001</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>21.558707999999999</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>21.528493999999998</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>21.498339000000001</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>21.468243000000001</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>21.438206000000001</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>21.408228000000001</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>21.378309000000002</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>21.34845</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>21.318649000000001</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>21.288906000000001</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>21.259222000000001</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>21.229596999999998</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>21.200029000000001</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>21.170518999999999</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>21.141065999999999</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>21.111671000000001</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>21.082335</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>21.053055000000001</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>21.023831999999999</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>20.994665000000001</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>20.965554999999998</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>20.936502000000001</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>20.907505</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>20.878564999999998</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>20.849679999999999</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>20.820851999999999</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>20.792079999999999</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>20.763362999999998</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>20.734701000000001</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>20.706095000000001</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>20.677544000000001</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>20.649048000000001</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>20.620607</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>20.592222</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>20.563890000000001</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>20.535613999999999</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>20.507390999999998</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>20.479223000000001</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>20.451108999999999</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>20.42305</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>20.395043999999999</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>20.367092</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>20.339193000000002</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>20.311347999999999</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>20.283556000000001</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>20.255817</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>20.22813</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>20.200496999999999</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>20.172916000000001</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>20.145388000000001</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>20.117912</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>20.090488000000001</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>20.063116000000001</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>20.035796999999999</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>20.00853</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>19.981314000000001</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>19.954149000000001</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>19.927036000000001</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>19.899975000000001</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>19.872965000000001</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>19.846004000000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>19.819095999999998</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>19.792238000000001</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>19.765429999999999</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>19.738674</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>19.711967000000001</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>19.685310000000001</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>19.658705000000001</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>19.632148999999998</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>19.605642</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>19.579184999999999</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>19.552778</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>19.526420999999999</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>19.500112999999999</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>19.473853999999999</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>19.447642999999999</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>19.421482000000001</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>19.39537</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>19.369306999999999</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>19.343292000000002</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>19.317326000000001</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>19.291409000000002</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>19.265539</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>19.239716999999999</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>19.213943</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>19.188217000000002</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>19.162538999999999</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>19.136907999999998</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>19.111324</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>19.085788999999998</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>19.060300999999999</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>19.034859000000001</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>19.009464000000001</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>18.984117999999999</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>18.958817</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>18.933562999999999</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>18.908356000000001</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>18.883194</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>18.858080000000001</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>18.833012</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>18.807988999999999</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>18.783011999999999</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>18.758081000000001</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>18.733196</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>18.708356999999999</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>18.683562999999999</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>18.658815000000001</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>18.634111000000001</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>18.609452999999998</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>18.584841000000001</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>18.560272000000001</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>18.535748999999999</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>18.511271000000001</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>18.486834999999999</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>18.462446</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>18.438101</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>18.413799000000001</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>18.389541999999999</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>18.365328000000002</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>18.341158</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>18.317032000000001</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>18.292950000000001</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>18.268910999999999</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>18.244917000000001</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>18.220966000000001</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>18.197057999999998</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>18.173193000000001</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>18.149372</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>18.125592999999999</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>18.101858</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>18.078164999999998</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>18.054514000000001</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>18.030906999999999</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>18.007341</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>17.983817999999999</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>17.960336999999999</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>17.936896999999998</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>17.913499999999999</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>17.890143999999999</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>17.866831000000001</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>17.843558999999999</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>17.820329999999998</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>17.797142000000001</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>17.773993999999998</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>17.750889000000001</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>17.727824999999999</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>17.704802000000001</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>17.681819999999998</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>17.658878000000001</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>17.635977</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>17.613116999999999</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>17.590298000000001</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>17.567518</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>17.544781</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>17.522082999999999</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>17.499426</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>17.476808999999999</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>17.454231</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>17.431694</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>17.409196999999999</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>17.386738000000001</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>17.364318999999998</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>17.341940000000001</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>17.319600999999999</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>17.2973</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>17.275040000000001</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>17.252817</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>17.230634999999999</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>17.208490000000001</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>17.186385999999999</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>17.16432</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>17.142292000000001</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>17.120304000000001</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>17.098354</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>17.076443000000001</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>17.054569000000001</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>17.032734000000001</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>17.010936999999998</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>16.989177999999999</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>16.967457</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>16.945774</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>16.924129000000001</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>16.902521</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>16.880951</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>16.859418999999999</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>16.837923</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>16.816465000000001</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>16.795044000000001</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>16.773661000000001</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>16.752313999999998</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>16.731005</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>16.709731999999999</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>16.688496000000001</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>16.667297000000001</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>16.646135000000001</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>16.62501</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>16.603919999999999</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>16.582867</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>16.56185</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>16.540869000000001</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>16.519924</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>16.499016000000001</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>16.478144</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>16.457308000000001</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>16.436508</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>16.415742999999999</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>16.395014</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>16.374320999999998</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>16.353662</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>16.33304</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>16.312452</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>16.291900999999999</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>16.271383</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>16.250902</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>16.230454999999999</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>16.210042999999999</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>16.189667</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>16.169325000000001</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>16.149017000000001</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>16.128744000000001</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>16.108505000000001</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>16.088301000000001</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>16.06813</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>16.047995</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>16.027892999999999</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>16.007826000000001</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>15.987793</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>15.967793</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>15.947827999999999</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>15.927896</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>15.907999</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>15.888135</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>15.868304</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>15.848507</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>15.828742999999999</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>15.809011999999999</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>15.789315</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>15.769651</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>15.750021</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>15.730423</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>15.710858</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>15.691326</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>15.671827</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>15.652361000000001</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>15.632927</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>15.613524999999999</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>15.594156</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>15.574821</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>15.555516000000001</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>15.536244</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>15.517004999999999</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>15.497798</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>15.478622</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>15.459479</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>15.440369</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>15.421289</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>15.402241999999999</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>15.383226000000001</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>15.364243</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>15.34529</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>15.326369</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>15.30748</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>15.288622</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>15.269795</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>15.250999</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>15.232234999999999</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>15.213502</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>15.194799</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>15.176128</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>15.157488000000001</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>15.138878</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>15.120298999999999</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>15.101751</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>15.083233999999999</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>15.064747000000001</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>15.046290000000001</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>15.027863999999999</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>15.009468999999999</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>14.991103000000001</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>14.972768</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>14.954463000000001</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>14.936188</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>14.917942999999999</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>14.899728</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>14.881542</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>14.863386999999999</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>14.845262</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>14.827166</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>14.809099</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>14.791062</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>14.773054999999999</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>14.755077</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>14.737128999999999</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>14.71921</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>14.701320000000001</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>14.683458</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>14.665627000000001</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>14.647823000000001</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>14.630050000000001</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>14.612304999999999</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>14.594588</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>14.576900999999999</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>14.559243</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>14.541613999999999</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>14.524013</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>14.50644</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>14.488896</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>14.47138</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>14.453893000000001</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>14.436434</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>14.419003</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>14.4016</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>14.384225000000001</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>14.366879000000001</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>14.34956</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>14.332269</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>14.315006</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>14.297770999999999</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>14.280564</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>14.263385</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>14.246233</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>14.229108999999999</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>14.212012</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>14.194943</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>14.177901</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>14.160887000000001</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>14.1439</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>14.126939999999999</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>14.110007</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>14.093102</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>14.076222</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>14.059371000000001</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>14.042546</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>14.025748</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>14.008977</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>13.992232</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>13.975514</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>13.958823000000001</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>13.942159</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>13.925521</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>13.908910000000001</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>13.892324</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>13.875766</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>13.859234000000001</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>13.842727999999999</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>13.826248</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>13.809794</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>13.793366000000001</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>13.776965000000001</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>13.760590000000001</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>13.74424</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>13.727916</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>13.711617</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>13.695345</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>13.679098</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>13.662877</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>13.646682</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>13.630512</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>13.614368000000001</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>13.598248999999999</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>13.582155999999999</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>13.566089</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>13.550046</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>13.534029</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>13.518037</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>13.502069000000001</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>13.486128000000001</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>13.470211000000001</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>13.454319</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>13.438452</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>13.422609</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>13.406791999999999</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>13.390999000000001</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>13.375230999999999</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>13.359488000000001</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>13.343769</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>13.328075</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>13.312405999999999</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>13.296761</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>13.281140000000001</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>13.265544</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>13.249972</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>13.234425</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>13.218901000000001</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>13.203402000000001</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>13.187925999999999</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>13.172475</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>13.157047</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>13.141643999999999</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>13.126265999999999</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>13.110910000000001</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>13.095579000000001</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>13.080272000000001</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>13.064987</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>13.049726</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>13.03449</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>13.019277000000001</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>13.004085999999999</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>12.98892</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>12.973777999999999</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>12.958658</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>12.943562999999999</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>12.92849</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>12.91344</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>12.898414000000001</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>12.88341</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>12.86843</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>12.853472999999999</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>12.838538</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>12.823627</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>12.808738999999999</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>12.793873</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>12.779030000000001</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>12.76421</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>12.749413000000001</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>12.734638</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>12.719887</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>12.705157</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>12.690450999999999</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>12.675767</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>12.661104999999999</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>12.646466</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>12.631849000000001</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>12.617254000000001</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>12.602682</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>12.588132</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>12.573604</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>12.559098000000001</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>12.544615</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>12.530153</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>12.515713999999999</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>12.501296</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>12.4869</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>12.472526999999999</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>12.458175000000001</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>12.443845</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>12.429536000000001</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>12.415248999999999</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>12.400983999999999</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>12.386741000000001</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>12.372519</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>12.358318000000001</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>12.344139</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>12.329981999999999</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>12.315844999999999</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>12.301731</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>12.287637999999999</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>12.273565</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>12.259515</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>12.245485</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>12.231477</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>12.217489</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>12.203523000000001</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>12.189577</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>12.175653000000001</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>12.161749</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>12.147866</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>12.134005</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>12.120164000000001</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>12.106344</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>12.092544999999999</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>12.078766</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>12.065008000000001</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>12.051270000000001</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>12.037554</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>12.023858000000001</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>12.010182</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>11.996527</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>11.982892</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>11.969277</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>11.955684</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>11.94211</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>11.928556</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>11.915023</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>11.901509000000001</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>11.888017</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>11.874544</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>11.861091999999999</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>11.847659</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>11.834247</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>11.820854000000001</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>11.807480999999999</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>11.794127</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>11.780794</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>11.767481</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>11.754187999999999</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>11.740913000000001</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>11.727658999999999</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>11.714423999999999</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>11.701209</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>11.688013</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>11.674837</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>11.66168</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>11.648543</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>11.635426000000001</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>11.622327</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>11.609247999999999</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>11.596189000000001</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>11.583148</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>11.570126999999999</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>11.557124</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>11.544142000000001</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>11.531178000000001</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>11.518234</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>11.505309</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>11.492402</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>11.479514</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>11.466645</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>11.453795</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>11.440965</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>11.428153</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>11.415359</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>11.402585</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>11.38983</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>11.377091999999999</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>11.364374</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>11.351673999999999</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>11.338993</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>11.32633</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>11.313686000000001</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>11.301061000000001</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>11.288453000000001</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>11.275865</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>11.263294</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>11.250742000000001</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>11.238208</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>11.225692</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>11.213195000000001</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>11.200716</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>11.188255</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>11.175813</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>11.163387999999999</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>11.150982000000001</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>11.138593</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>11.126222</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>11.113868999999999</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>11.101533999999999</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>11.089217</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>11.076917999999999</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>11.064636</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>11.052372999999999</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>11.040127</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>11.027899</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>11.015689</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>11.003496</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>10.991322</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>10.979164000000001</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>10.967024</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>10.954902000000001</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>10.942797000000001</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>10.930709</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>10.918639000000001</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>10.906587</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>10.894551</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>10.882533</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>10.870532000000001</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>10.858549</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>10.846583000000001</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>10.834635</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>10.822703000000001</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>10.810789</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>10.798892</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>10.787011</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>10.775147</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>10.763301</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>10.751472</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>10.739659</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>10.727864</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>10.716085</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>10.704324</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>10.692579</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>10.680851000000001</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>10.669140000000001</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>10.657444999999999</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>10.645766999999999</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>10.634105999999999</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>10.622460999999999</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>10.610833</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>10.599221999999999</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>10.587626999999999</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>10.576048999999999</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>10.564487</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>10.552941000000001</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>10.541411999999999</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>10.5299</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>10.518402999999999</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>10.506923</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>10.49546</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>10.484012999999999</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>10.472581999999999</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>10.461167</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>10.449769</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>10.438387000000001</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>10.427021</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>10.41567</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>10.404336000000001</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>10.393018</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>10.381716000000001</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>10.370430000000001</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>10.359159</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>10.347905000000001</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>10.336667</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>10.325443999999999</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>10.314238</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>10.303046999999999</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>10.291872</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>10.280713</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>10.269569000000001</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>10.258442000000001</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>10.24733</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>10.236233</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>10.225152</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>10.214086999999999</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>10.203036000000001</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>10.192002</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>10.180984</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>10.169980000000001</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>10.158992</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>10.148020000000001</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>10.137062999999999</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>10.126122000000001</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>10.115195</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>10.104284</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>10.093389</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>10.082508000000001</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>10.071643</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>10.060793</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>10.049958</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>10.039139</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>10.028335</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>10.017545</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>10.006769999999999</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>9.9960109999999993</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>9.9852670000000003</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>9.9745369999999998</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>9.9638220000000004</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>9.9531229999999997</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>9.9424379999999992</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>9.9317679999999999</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>9.9211130000000001</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>9.9104729999999996</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>9.8998480000000004</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>9.8892369999999996</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>9.8786419999999993</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>9.8680610000000009</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>9.8574940000000009</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>9.8469429999999996</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>9.8364060000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5111-49B9-91D6-A5DDA71F0FE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$961</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="960"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.244676</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36653000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.488062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60927399999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73016700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85074300000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.971001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0909450000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.210574</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.32989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.448895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5675889999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6859729999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.804049</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.921818</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0392809999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1564399999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2732939999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3898459999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5060959999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6220460000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7376960000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8530489999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9681039999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0828639999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1973280000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.311499</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4253770000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.538964</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6522600000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.765266</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.8779849999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.990415</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1025600000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2144190000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3259939999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.4372850000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5482950000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6590230000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7694720000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.8796410000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.9895319999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.099145</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.2084830000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.3175460000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4263339999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.5348499999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.6430930000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.7510649999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.8587670000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.9661999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.0733639999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.1802609999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.2868919999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.3932570000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.499358</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.6051950000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.7107700000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.8160819999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.9211340000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.0259270000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.1304610000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.2347359999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.3387539999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.4425160000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.5460229999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.6492760000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.752275</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8550209999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.957516</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.0597600000000007</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.1617540000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.2634980000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.3649950000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.4662439999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.5672460000000008</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.6680030000000006</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.768516</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.8687839999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.9688090000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.0685920000000007</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.1681340000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.2674350000000008</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.3664959999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.4653189999999991</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.5639029999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.6622500000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.7603600000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.8582339999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.9558739999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10.053280000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10.150453000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10.247393000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10.344101</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10.440578</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10.536826</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10.632844</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10.728633</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10.824195</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.919529000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11.014637</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>11.10952</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11.204178000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11.298612</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11.392822000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11.486810999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11.580577</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11.674123</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11.767448</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.860555</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.953442000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>12.046111</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>12.138563</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12.230798999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12.322818</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12.414622</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>12.506212</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12.597588999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12.688751</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.779702</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.870441</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.96097</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>13.051288</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>13.141397</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>13.231297</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13.320988</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.410472</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13.499749</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13.58882</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.677686</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.766347</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.854804</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.943057</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>14.031108</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>14.118957</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14.206604</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14.29405</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14.381296000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14.468343000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.555191000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.641840999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.728293000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.814548</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.900607000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.986470000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>15.072139</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>15.157613</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>15.242893</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15.32798</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.412874</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.497577</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.582088000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.666408000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.750538000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.834478000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.918229999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>16.001792999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16.085169</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16.168358000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.251359999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.334177</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.416809000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.499255999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.581517999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.663596999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.745493</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.827206</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.908736999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>16.990088</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.071256999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.152246000000002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.233056999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.313687999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.39414</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.474415</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.554511999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.634432</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.714175999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>17.793745000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>17.873138000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>17.952356000000002</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.031400999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.110271000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.188969</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.267493999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.345848</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.424029999999998</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.502040999999998</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>18.579882000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>18.657553</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>18.735054000000002</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>18.812387000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>18.889552999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>18.966550999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.043381</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.120045000000001</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.196542999999998</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.272874999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>19.349041</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>19.425042999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>19.500881</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>19.576554999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>19.652065</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>19.727412999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>19.802599000000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>19.877623</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>19.952486</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>20.027187000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>20.101728000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>20.176110999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>20.250333999999999</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>20.324397999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>20.398304</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>20.472052000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>20.545641</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>20.619074000000001</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>20.692350000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>20.765471000000002</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>20.838436000000002</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>20.911246999999999</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>20.983903999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>21.056405999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>21.128754000000001</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>21.200949000000001</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>21.272991000000001</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>21.344881000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>21.416618</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>21.488205000000001</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>21.559640999999999</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>21.630925999999999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>21.702061</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>21.773046000000001</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>21.843883999999999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>21.914572</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>21.985111</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>22.055502000000001</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>22.125745999999999</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>22.195843</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>22.265792999999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>22.335595999999999</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>22.405253999999999</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>22.474768000000001</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>22.544136000000002</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>22.613358999999999</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>22.68244</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>22.751374999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>22.820167999999999</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>22.888817</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>22.957325000000001</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>23.025690000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>23.093914000000002</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>23.161997</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>23.229939000000002</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>23.297740999999998</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>23.365404000000002</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>23.432925999999998</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>23.500309000000001</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>23.567554000000001</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>23.634661000000001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>23.701630000000002</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>23.768460999999999</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>23.835155</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>23.901712</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>23.968133999999999</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>24.034420000000001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24.100569</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>24.166584</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>24.232464</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>24.298207999999999</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>24.363818999999999</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>24.429296000000001</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>24.49464</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>24.559853</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>24.624931</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>24.689878</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>24.754694000000001</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>24.819378</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>24.883929999999999</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>24.948353000000001</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>25.012644000000002</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>25.076805</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>25.140837000000001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>25.204740999999999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>25.268515000000001</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>25.332160999999999</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>25.395679000000001</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>25.459070000000001</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>25.522333</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>25.585467999999999</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>25.648478000000001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>25.711361</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>25.774118000000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>25.836749999999999</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>25.899256000000001</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>25.961637</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>26.023893000000001</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>26.086024999999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26.148033000000002</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>26.209918999999999</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>26.271681000000001</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>26.333321000000002</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>26.394836000000002</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>26.456230000000001</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>26.517502</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>26.578652999999999</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>26.639683000000002</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>26.700592</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>26.761381</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>26.822050000000001</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>26.882598999999999</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>26.943027000000001</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>27.003337999999999</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>27.063528000000002</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>27.1236</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>27.183554000000001</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>27.243389000000001</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>27.303108000000002</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>27.362708999999999</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>27.422194000000001</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>27.481562</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>27.540813</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>27.599948999999999</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>27.65897</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>27.717874999999999</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>27.776665000000001</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>27.835339999999999</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>27.893902000000001</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>27.952349000000002</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>28.010681000000002</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>28.068901</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>28.127006999999999</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>28.184999000000001</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>28.24288</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>28.300647999999999</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>28.358305000000001</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>28.415849999999999</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>28.473284</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>28.530605000000001</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>28.587816</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>28.644917</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>28.701908</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>28.758789</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>28.815560999999999</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>28.872223000000002</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>28.928775999999999</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>28.985220000000002</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>29.041554999999999</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>29.097784000000001</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>29.153904000000001</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>29.209917000000001</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>29.265820999999999</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>29.321618999999998</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>29.377310000000001</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>29.432894000000001</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>29.488372999999999</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>29.543745000000001</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>29.599011999999998</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>29.654174999999999</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>29.709232</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>29.764185000000001</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>29.819033000000001</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>29.873774999999998</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>29.928415000000001</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>29.982949999999999</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>30.037382000000001</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>30.091711</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>30.145937</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>30.200060000000001</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>30.254082</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>30.308001000000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>30.361818</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>30.415534999999998</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>30.469151</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>30.522665</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>30.576077999999999</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>30.629390999999998</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>30.682604000000001</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>30.735716</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>30.788729</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>30.841642</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>30.894456999999999</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>30.947171999999998</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>30.999787999999999</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>31.052306999999999</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>31.104727</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>31.157049000000001</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>31.209271999999999</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>31.261398</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>31.313427000000001</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>31.365359999999999</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>31.417196000000001</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>31.468934999999998</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>31.520578</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>31.572126000000001</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>31.623578999999999</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>31.674934</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>31.726196000000002</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>31.777363000000001</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>31.828434000000001</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>31.879411999999999</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>31.930294</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>31.981083000000002</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>32.031776000000001</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>32.082377999999999</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>32.132885000000002</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>32.183300000000003</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>32.233623999999999</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>32.283852000000003</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>32.333987999999998</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>32.384033000000002</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>32.433987000000002</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>32.483848999999999</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>32.533619000000002</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>32.583297999999999</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>32.632885000000002</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>32.682380999999999</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>32.731788999999999</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>32.781104999999997</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>32.830329999999996</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>32.879466999999998</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>32.928513000000002</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>32.977469999999997</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>33.026339999999998</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>33.075119000000001</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>33.123809999999999</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>33.172412999999999</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>33.220928000000001</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>33.269356000000002</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>33.317695999999998</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>33.365948000000003</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>33.414112000000003</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>33.462189000000002</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>33.510178000000003</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>33.558078999999999</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>33.605896000000001</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>33.653624999999998</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>33.701267000000001</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>33.748824999999997</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>33.796295000000001</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>33.843680999999997</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>33.890984000000003</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>33.938198</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>33.985329</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>34.032375000000002</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>34.079338</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>34.126216999999997</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>34.173012</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>34.219723000000002</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>34.266350000000003</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>34.312893000000003</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>34.359352000000001</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>34.405726999999999</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>34.452022999999997</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>34.498233999999997</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>34.544361000000002</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>34.590407999999996</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>34.636372000000001</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>34.682254999999998</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>34.728057999999997</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>34.773777000000003</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>34.819415999999997</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>34.864975000000001</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>34.910449999999997</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>34.955844999999997</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>35.001159999999999</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>35.046393999999999</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>35.091549000000001</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>35.136623</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>35.181618</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>35.226536000000003</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>35.271374000000002</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>35.316132000000003</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>35.360809000000003</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>35.405411000000001</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>35.449931999999997</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>35.494377</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>35.538741999999999</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>35.583030999999998</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>35.627239000000003</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>35.671371000000001</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>35.715426999999998</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>35.759402999999999</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>35.803303</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>35.847126000000003</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>35.890872999999999</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>35.934544000000002</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>35.978138000000001</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>36.021656</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>36.065097999999999</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>36.108463</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>36.151752000000002</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>36.194969</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>36.238109999999999</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>36.281174</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>36.324165000000001</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>36.367080999999999</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>36.409923999999997</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>36.452689999999997</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>36.495384000000001</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>36.538001999999999</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>36.580547000000003</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>36.623019999999997</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>36.665416999999998</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>36.707740999999999</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>36.749991999999999</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>36.792171000000003</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>36.834277999999998</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>36.876311999999999</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>36.918273999999997</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>36.960163000000001</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>37.001980000000003</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>37.043723999999997</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>37.085396000000003</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>37.126995000000001</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>37.168526</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>37.209983999999999</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>37.251368999999997</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>37.292686000000003</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>37.333931</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>37.375107</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>37.41621</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>37.457245</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>37.498207000000001</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>37.539101000000002</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>37.579926</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>37.620677999999998</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>37.661361999999997</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>37.701976999999999</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>37.742522999999998</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>37.783000999999999</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>37.823410000000003</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>37.863750000000003</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>37.904021999999998</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>37.944225000000003</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>37.984360000000002</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>38.024425999999998</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>38.064422999999998</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>38.104354999999998</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>38.144218000000002</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>38.184013</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>38.223742999999999</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>38.263404999999999</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>38.302998000000002</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>38.342525000000002</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>38.381985</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>38.421379000000002</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>38.460709000000001</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>38.499969</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>38.539164999999997</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>38.578296999999999</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>38.617359</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>38.656357</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>38.69529</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>38.734158000000001</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>38.772961000000002</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>38.811698999999997</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>38.850372</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>38.888981000000001</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>38.927525000000003</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>38.966003000000001</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>39.004416999999997</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>39.042766999999998</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>39.081051000000002</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>39.119273999999997</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>39.157432999999997</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>39.195526000000001</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>39.233559</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>39.271526000000001</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>39.309432999999999</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>39.347275000000003</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>39.385055999999999</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>39.422770999999997</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>39.460425999999998</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>39.498016</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>39.535544999999999</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>39.573013000000003</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>39.610416000000001</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>39.647758000000003</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>39.685040000000001</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>39.722259999999999</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>39.759417999999997</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>39.796515999999997</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>39.833553000000002</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>39.870528999999998</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>39.907443999999998</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>39.944298000000003</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>39.981090999999999</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>40.017822000000002</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>40.054493000000001</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>40.091102999999997</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>40.127651</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>40.164143000000003</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>40.200572999999999</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>40.236941999999999</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>40.273254000000001</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>40.309505000000001</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>40.345699000000003</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>40.381832000000003</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>40.417907999999997</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>40.453921999999999</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>40.489879999999999</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>40.525776</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>40.561615000000003</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>40.597397000000001</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>40.633118000000003</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>40.668781000000003</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>40.704388000000002</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>40.739936999999998</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>40.775424999999998</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>40.810856000000001</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>40.846229999999998</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>40.881546</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>40.916804999999997</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>40.952007000000002</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>40.987152000000002</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>41.022239999999996</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>41.057270000000003</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>41.092243000000003</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>41.127163000000003</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>41.162025</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>41.196831000000003</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>41.231579000000004</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>41.266272999999998</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>41.300910999999999</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>41.335490999999998</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>41.370018000000002</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>41.404488000000001</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>41.438904000000001</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>41.473263000000003</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>41.507565</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>41.541812999999998</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>41.576008000000002</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>41.610146</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>41.64423</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>41.678260999999999</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>41.712234000000002</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>41.746155000000002</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>41.780022000000002</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>41.813831</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>41.847588000000002</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>41.88129</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>41.914940000000001</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>41.948535999999997</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>41.982078999999999</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>42.015568000000002</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>42.049003999999996</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>42.082386</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>42.115715000000002</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>42.148991000000002</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>42.182212999999997</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>42.215381999999998</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>42.248497</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>42.281562999999998</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>42.314574999999998</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>42.347534000000003</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>42.38044</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>42.413296000000003</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>42.446097999999999</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>42.478847999999999</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>42.511547</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>42.544193</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>42.576790000000003</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>42.609332999999999</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>42.641826999999999</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>42.674267</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>42.706657</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>42.738998000000002</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>42.771286000000003</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>42.803524000000003</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>42.835709000000001</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>42.867843999999998</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>42.899929</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>42.931964999999998</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>42.963951000000002</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>42.995883999999997</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>43.027766999999997</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>43.059601000000001</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>43.091385000000002</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>43.123119000000003</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>43.154803999999999</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>43.186439999999997</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>43.218024999999997</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>43.249561</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>43.281047999999998</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>43.312485000000002</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>43.343871999999998</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>43.375210000000003</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>43.406502000000003</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>43.437744000000002</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>43.468936999999997</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>43.500079999999997</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>43.531177999999997</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>43.562224999999998</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>43.593223999999999</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>43.624175999999999</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>43.655079000000001</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>43.685932000000001</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>43.716740000000001</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>43.747498</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>43.778210000000001</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>43.808872000000001</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>43.839489</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>43.870055999999998</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>43.900578000000003</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>43.931052999999999</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>43.961478999999997</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>43.991858999999998</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>44.022193999999999</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>44.052478999999998</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>44.082718</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>44.112910999999997</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>44.143059000000001</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>44.173157000000003</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>44.203209000000001</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>44.233215000000001</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>44.263176000000001</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>44.293090999999997</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>44.322960000000002</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>44.352783000000002</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>44.382561000000003</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>44.412292000000001</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>44.441977999999999</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>44.471618999999997</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>44.501213</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>44.530762000000003</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>44.560265000000001</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>44.589722000000002</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>44.619137000000002</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>44.648505999999998</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>44.67783</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>44.707107999999998</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>44.736339999999998</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>44.765529999999998</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>44.794674000000001</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>44.823771999999998</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>44.852829</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>44.881839999999997</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>44.910809</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>44.939731999999999</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>44.968612999999998</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>44.997447999999999</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>45.026240999999999</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>45.054988999999999</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>45.083694000000001</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>45.112354000000003</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>45.140971999999998</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>45.169544000000002</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>45.198073999999998</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>45.226562999999999</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>45.255004999999997</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>45.283405000000002</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>45.311763999999997</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>45.34008</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>45.368350999999997</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>45.39658</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>45.424767000000003</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>45.452911</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>45.481014000000002</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>45.509075000000003</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>45.537089999999999</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>45.565063000000002</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>45.592995000000002</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>45.620883999999997</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>45.648730999999998</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>45.676537000000003</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>45.704300000000003</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>45.732021000000003</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>45.759704999999997</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>45.787345999999999</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>45.814945000000002</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>45.842503000000001</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>45.870018000000002</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>45.897491000000002</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>45.924926999999997</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>45.95232</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>45.979671000000003</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>46.006981000000003</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>46.034252000000002</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>46.061481000000001</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>46.088669000000003</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>46.115817999999997</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>46.142924999999998</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>46.169991000000003</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>46.197018</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>46.224003000000003</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>46.250950000000003</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>46.277855000000002</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>46.304721999999998</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>46.331547</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>46.358333999999999</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>46.385078</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>46.411785000000002</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>46.438450000000003</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>46.465076000000003</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>46.491664999999998</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>46.518211000000001</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>46.544719999999998</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>46.571190000000001</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>46.597622000000001</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>46.624012</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>46.650364000000003</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>46.676678000000003</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>46.702953000000001</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>46.729187000000003</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>46.755383000000002</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>46.78154</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>46.807659000000001</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>46.833739999999999</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>46.859783</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>46.885787999999998</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>46.911754999999999</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>46.937683</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>46.963572999999997</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>46.989426000000002</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>47.015239999999999</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>47.041015999999999</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>47.066752999999999</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>47.092452999999999</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>47.118113999999998</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>47.143737999999999</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>47.169322999999999</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>47.194873999999999</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>47.220387000000002</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>47.245860999999998</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>47.271296999999997</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>47.296695999999997</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>47.32206</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>47.347385000000003</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>47.372672999999999</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>47.397925999999998</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>47.423141000000001</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>47.448318</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>47.473461</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>47.498565999999997</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>47.523631999999999</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>47.548664000000002</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>47.573658000000002</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>47.598618000000002</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>47.623539000000001</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>47.648426000000001</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>47.673274999999997</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>47.698090000000001</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>47.722866000000003</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>47.747608</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>47.772311999999999</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>47.796982</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>47.821617000000003</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>47.846214000000003</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>47.870776999999997</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>47.895305999999998</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>47.919795999999998</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>47.944251999999999</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>47.968674</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>47.993057</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>48.017406000000001</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>48.041721000000003</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>48.066001999999997</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>48.090248000000003</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>48.114455999999997</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>48.138629999999999</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>48.162768999999997</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>48.186874000000003</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>48.210945000000002</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>48.234982000000002</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>48.258983999999998</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>48.282950999999997</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>48.306885000000001</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>48.330784000000001</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>48.354649000000002</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>48.378478999999999</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>48.402275000000003</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>48.426037000000001</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>48.449764000000002</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>48.473457000000003</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>48.497115999999998</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>48.520741000000001</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>48.544331</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>48.567886000000001</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>48.591411999999998</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>48.614902000000001</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>48.638359000000001</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>48.661780999999998</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>48.685169000000002</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>48.708526999999997</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>48.731850000000001</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>48.755138000000002</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>48.778393000000001</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>48.801617</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>48.824806000000002</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>48.847960999999998</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>48.871085999999998</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>48.894176000000002</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>48.917236000000003</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>48.940261999999997</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>48.963253000000002</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>48.986213999999997</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>49.009140000000002</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>49.032035999999998</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>49.054896999999997</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>49.077728</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>49.100524999999998</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>49.123291000000002</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>49.146023</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>49.168723999999997</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>49.191391000000003</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>49.214027000000002</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>49.236632999999998</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>49.259205000000001</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>49.281745999999998</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>49.304253000000003</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>49.326729</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>49.349173999999998</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>49.371589999999998</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>49.393970000000003</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>49.416321000000003</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>49.438640999999997</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>49.460926000000001</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>49.483181000000002</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>49.505405000000003</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>49.527599000000002</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>49.549762999999999</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>49.571891999999998</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>49.593989999999998</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>49.616058000000002</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>49.638095999999997</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>49.660102999999999</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>49.682079000000002</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>49.704025000000001</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>49.725940999999999</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>49.747826000000003</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>49.769680000000001</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>49.791504000000003</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>49.813296999999999</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>49.835059999999999</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>49.856791999999999</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>49.878494000000003</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>49.900165999999999</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>49.921805999999997</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>49.943416999999997</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>49.964995999999999</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>49.986545999999997</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>50.008063999999997</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>50.029552000000002</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>50.051009999999998</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>50.072437000000001</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>50.093837999999998</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>50.115208000000003</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>50.136547</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>50.157856000000002</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>50.179133999999998</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>50.200386000000002</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>50.221606999999999</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>50.242798000000001</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>50.263961999999999</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>50.285094999999998</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>50.306198000000002</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>50.327271000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5111-49B9-91D6-A5DDA71F0FE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1951669311"/>
+        <c:axId val="1951674719"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1951669311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1951674719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1951674719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1951669311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9639,6 +18654,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9666,6 +19197,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>948</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>963</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9967,8 +19528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C961"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
